--- a/data/trans_orig/P26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P26-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B111C823-6C24-49E4-B1C8-FDAA00F25142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C83C3AB-8992-4888-8C35-B523BB6F9F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6F0B8D5-EE67-427F-8205-A12ECB789147}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73AD53F3-5D55-4B57-A4AC-A92C27993962}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>27,11%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>28,65%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,1645 +311,1651 @@
     <t>28,29%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>89,86%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>80,56%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>94,9%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC9740F-0B8E-411A-9286-302E01A2FB4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEE94D-1A4F-4F13-BE6B-F6FDEB92E846}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3591,7 +3597,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="M25" s="7">
         <v>433</v>
@@ -3600,13 +3606,13 @@
         <v>451161</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>497274</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3636,13 +3642,13 @@
         <v>478541</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>951</v>
@@ -3651,13 +3657,13 @@
         <v>975816</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>873885</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1124</v>
@@ -3740,13 +3746,13 @@
         <v>1146829</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1980</v>
@@ -3755,13 +3761,13 @@
         <v>2020714</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3782,13 @@
         <v>2177981</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1898</v>
@@ -3791,13 +3797,13 @@
         <v>1945558</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4041</v>
@@ -3806,13 +3812,13 @@
         <v>4123539</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3874,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428EBA69-B4BE-4AF4-BDD6-144862C58C91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17DAD6C-B226-4811-A1A7-D12EE4260A63}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4014,39 +4020,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,39 +4065,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,39 +4110,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4159,13 @@
         <v>160729</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4168,13 +4174,13 @@
         <v>210549</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>348</v>
@@ -4183,13 +4189,13 @@
         <v>371278</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4210,13 @@
         <v>332558</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -4219,13 +4225,13 @@
         <v>300473</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -4234,13 +4240,13 @@
         <v>633031</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4314,13 @@
         <v>108020</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4323,13 +4329,13 @@
         <v>110393</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4338,13 +4344,13 @@
         <v>218412</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4365,13 @@
         <v>195592</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4374,13 +4380,13 @@
         <v>195977</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -4389,13 +4395,13 @@
         <v>391570</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4469,13 @@
         <v>215303</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -4478,13 +4484,13 @@
         <v>229024</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>411</v>
@@ -4493,13 +4499,13 @@
         <v>444327</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4520,13 @@
         <v>432249</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -4529,13 +4535,13 @@
         <v>425584</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>801</v>
@@ -4544,13 +4550,13 @@
         <v>857833</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4624,13 @@
         <v>70287</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4633,13 +4639,13 @@
         <v>86390</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -4648,13 +4654,13 @@
         <v>156676</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4675,13 @@
         <v>142331</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4958,13 +4964,13 @@
         <v>470655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4985,13 @@
         <v>400052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>326</v>
@@ -4994,13 +5000,13 @@
         <v>358461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>696</v>
@@ -5009,13 +5015,13 @@
         <v>758513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5089,13 @@
         <v>238554</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -5098,13 +5104,13 @@
         <v>292553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>485</v>
@@ -5113,13 +5119,13 @@
         <v>531107</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>519323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>468</v>
@@ -5149,13 +5155,13 @@
         <v>507843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>949</v>
@@ -5164,13 +5170,13 @@
         <v>1027166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5244,13 @@
         <v>1078781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1215</v>
@@ -5253,13 +5259,13 @@
         <v>1302456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -5268,13 +5274,13 @@
         <v>2381237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5295,13 @@
         <v>2201696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>1905</v>
@@ -5304,13 +5310,13 @@
         <v>2060336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
@@ -5319,13 +5325,13 @@
         <v>4262033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5387,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BB797-1210-4311-9914-ED87743D18D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FED6D80-9D12-4C85-8230-4D387516C2AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5535,13 @@
         <v>89678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5544,13 +5550,13 @@
         <v>101948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5559,13 +5565,13 @@
         <v>191625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5586,13 @@
         <v>172679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -5595,13 +5601,13 @@
         <v>159493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>310</v>
@@ -5610,13 +5616,13 @@
         <v>332172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5690,13 @@
         <v>114319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5699,13 +5705,13 @@
         <v>167609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -5714,13 +5720,13 @@
         <v>281928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5741,13 @@
         <v>379451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5750,13 +5756,13 @@
         <v>341394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>672</v>
@@ -5765,13 +5771,13 @@
         <v>720845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5845,13 @@
         <v>55690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5854,13 +5860,13 @@
         <v>42513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5869,13 +5875,13 @@
         <v>98203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5896,13 @@
         <v>251931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5905,13 +5911,13 @@
         <v>276067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>538</v>
@@ -5920,13 +5926,13 @@
         <v>527997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6000,13 @@
         <v>97228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -6009,13 +6015,13 @@
         <v>102285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -6024,13 +6030,13 @@
         <v>199514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6051,13 @@
         <v>241627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -6060,13 +6066,13 @@
         <v>248620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -6075,13 +6081,13 @@
         <v>490246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6155,13 @@
         <v>53202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6164,13 +6170,13 @@
         <v>45433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -6179,13 +6185,13 @@
         <v>98635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6206,13 @@
         <v>141186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6215,13 +6221,13 @@
         <v>162937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -6230,13 +6236,13 @@
         <v>304122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6310,13 @@
         <v>57067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6319,13 +6325,13 @@
         <v>73474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6334,13 +6340,13 @@
         <v>130541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6361,13 @@
         <v>183171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -6370,13 +6376,13 @@
         <v>173507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -6385,13 +6391,13 @@
         <v>356678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6465,13 @@
         <v>159070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6474,13 +6480,13 @@
         <v>185891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -6489,13 +6495,13 @@
         <v>344961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6516,13 @@
         <v>430557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>398</v>
@@ -6525,13 +6531,13 @@
         <v>428051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>780</v>
@@ -6540,13 +6546,13 @@
         <v>858607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6620,13 @@
         <v>168533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6629,13 +6635,13 @@
         <v>159097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -6644,13 +6650,13 @@
         <v>327630</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6671,13 @@
         <v>555554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6680,13 +6686,13 @@
         <v>615020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6695,13 +6701,13 @@
         <v>1170574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,28 +6775,28 @@
         <v>794787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>844</v>
       </c>
       <c r="I28" s="7">
-        <v>878251</v>
+        <v>878250</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>238</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>1589</v>
@@ -6799,13 +6805,13 @@
         <v>1673037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6826,13 @@
         <v>2356155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -6835,13 +6841,13 @@
         <v>2405087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>4516</v>
@@ -6850,13 +6856,13 @@
         <v>4761242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>60</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6889,7 @@
         <v>3106</v>
       </c>
       <c r="I30" s="7">
-        <v>3283338</v>
+        <v>3283337</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6912,7 +6918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6936,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908FE55-024B-4522-9B66-59546C5F0C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E785F1A-6B3E-4530-B3C4-CDF940694D27}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7060,13 +7066,13 @@
         <v>41130</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -7075,13 +7081,13 @@
         <v>50791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -7090,13 +7096,13 @@
         <v>91921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7117,13 @@
         <v>183753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
         <v>372</v>
@@ -7126,13 +7132,13 @@
         <v>184551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
@@ -7141,13 +7147,13 @@
         <v>368304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7221,13 @@
         <v>45113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -7230,13 +7236,13 @@
         <v>65198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -7245,13 +7251,13 @@
         <v>110311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7272,13 @@
         <v>443903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7281,13 +7287,13 @@
         <v>447716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M8" s="7">
         <v>912</v>
@@ -7296,13 +7302,13 @@
         <v>891619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7376,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -7385,13 +7391,13 @@
         <v>53315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -7400,13 +7406,13 @@
         <v>73731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7427,13 @@
         <v>281591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7436,13 +7442,13 @@
         <v>291733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>731</v>
@@ -7451,13 +7457,13 @@
         <v>573324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7531,13 @@
         <v>38598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7540,13 +7546,13 @@
         <v>44293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -7555,13 +7561,13 @@
         <v>82891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7582,13 @@
         <v>229775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>417</v>
@@ -7591,13 +7597,13 @@
         <v>321656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7606,13 +7612,13 @@
         <v>551431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7686,13 @@
         <v>7878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7695,13 +7701,13 @@
         <v>14357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -7710,13 +7716,13 @@
         <v>22235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7737,13 @@
         <v>173019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7746,13 +7752,13 @@
         <v>208134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
@@ -7761,13 +7767,13 @@
         <v>381153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7841,13 @@
         <v>28164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -7850,13 +7856,13 @@
         <v>31778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -7865,13 +7871,13 @@
         <v>59942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7892,13 @@
         <v>228374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7901,13 +7907,13 @@
         <v>234350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
@@ -7916,13 +7922,13 @@
         <v>462725</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7996,13 @@
         <v>114562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -8005,13 +8011,13 @@
         <v>156258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
@@ -8020,13 +8026,13 @@
         <v>270820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8047,13 @@
         <v>474859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
@@ -8056,13 +8062,13 @@
         <v>617981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -8071,13 +8077,13 @@
         <v>1092840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>598</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8151,13 @@
         <v>93777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8160,13 +8166,13 @@
         <v>46469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -8175,13 +8181,13 @@
         <v>140246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8202,13 @@
         <v>678717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
         <v>861</v>
@@ -8211,13 +8217,13 @@
         <v>710557</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -8226,13 +8232,13 @@
         <v>1389274</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8306,13 @@
         <v>389638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>605</v>
@@ -8315,13 +8321,13 @@
         <v>462458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>901</v>
@@ -8330,13 +8336,13 @@
         <v>852096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,13 +8357,13 @@
         <v>2693991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>4216</v>
@@ -8366,13 +8372,13 @@
         <v>3016679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>6967</v>
@@ -8381,13 +8387,13 @@
         <v>5710670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,7 +8449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P26-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C83C3AB-8992-4888-8C35-B523BB6F9F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F987C1-0444-4A0C-A1A4-F90EFF64C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73AD53F3-5D55-4B57-A4AC-A92C27993962}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE4CFF2-1794-47D5-9A0C-3431738F7A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>27,11%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>28,65%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>28,29%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,1519 +368,1495 @@
     <t>28,15%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
     <t>32,72%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>67,28%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>65,66%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
   </si>
   <si>
     <t>94,9%</t>
@@ -2367,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEE94D-1A4F-4F13-BE6B-F6FDEB92E846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56975B25-1E1A-4961-8D99-79BAB33F6748}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3284,10 +3260,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -3296,13 +3272,13 @@
         <v>168605</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3293,13 @@
         <v>180224</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -3332,13 +3308,13 @@
         <v>149913</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -3347,13 +3323,13 @@
         <v>330138</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3385,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3421,13 +3397,13 @@
         <v>175532</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -3436,28 +3412,28 @@
         <v>225911</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
       </c>
       <c r="N22" s="7">
-        <v>401444</v>
+        <v>401443</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3448,13 @@
         <v>401472</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>353</v>
@@ -3487,13 +3463,13 @@
         <v>361962</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>742</v>
@@ -3502,13 +3478,13 @@
         <v>763434</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3526,7 @@
         <v>1138</v>
       </c>
       <c r="N24" s="7">
-        <v>1164878</v>
+        <v>1164877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3564,7 +3540,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3576,13 +3552,13 @@
         <v>198410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -3591,13 +3567,13 @@
         <v>252752</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M25" s="7">
         <v>433</v>
@@ -3606,13 +3582,13 @@
         <v>451161</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3603,13 @@
         <v>497274</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3642,10 +3618,10 @@
         <v>478541</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>158</v>
@@ -3767,7 +3743,7 @@
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3758,13 @@
         <v>2177981</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1898</v>
@@ -3797,13 +3773,13 @@
         <v>1945558</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>4041</v>
@@ -3812,13 +3788,13 @@
         <v>4123539</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3850,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17DAD6C-B226-4811-A1A7-D12EE4260A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04619FD0-6430-443C-8A6C-738A8A8ABDE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4020,39 +3996,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,39 +4041,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,39 +4086,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4135,13 @@
         <v>160729</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4174,13 +4150,13 @@
         <v>210549</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>348</v>
@@ -4189,13 +4165,13 @@
         <v>371278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4186,13 @@
         <v>332558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -4225,13 +4201,13 @@
         <v>300473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -4240,13 +4216,13 @@
         <v>633031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4290,13 @@
         <v>108020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4329,13 +4305,13 @@
         <v>110393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4344,13 +4320,13 @@
         <v>218412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4341,13 @@
         <v>195592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4380,13 +4356,13 @@
         <v>195977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -4395,13 +4371,13 @@
         <v>391570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4445,13 @@
         <v>215303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -4484,13 +4460,13 @@
         <v>229024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>411</v>
@@ -4499,13 +4475,13 @@
         <v>444327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4496,13 @@
         <v>432249</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -4535,13 +4511,13 @@
         <v>425584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>801</v>
@@ -4550,13 +4526,13 @@
         <v>857833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4600,13 @@
         <v>70287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4639,13 +4615,13 @@
         <v>86390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -4654,13 +4630,13 @@
         <v>156676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4651,13 @@
         <v>142331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4690,13 +4666,13 @@
         <v>128798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -4705,13 +4681,13 @@
         <v>271130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4755,13 @@
         <v>77819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4794,13 +4770,13 @@
         <v>110962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4809,13 +4785,13 @@
         <v>188781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4806,13 @@
         <v>179590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>137</v>
@@ -4845,13 +4821,13 @@
         <v>143200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
@@ -4860,13 +4836,13 @@
         <v>322790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4898,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4934,13 +4910,13 @@
         <v>208070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4949,13 +4925,13 @@
         <v>262585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>444</v>
@@ -4964,13 +4940,13 @@
         <v>470655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4961,13 @@
         <v>400052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>326</v>
@@ -5000,13 +4976,13 @@
         <v>358461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>696</v>
@@ -5015,13 +4991,13 @@
         <v>758513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5053,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5089,13 +5065,13 @@
         <v>238554</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -5104,13 +5080,13 @@
         <v>292553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>485</v>
@@ -5119,13 +5095,13 @@
         <v>531107</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5116,13 @@
         <v>519323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>468</v>
@@ -5155,13 +5131,13 @@
         <v>507843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>949</v>
@@ -5170,13 +5146,13 @@
         <v>1027166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5220,13 @@
         <v>1078781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1215</v>
@@ -5259,13 +5235,13 @@
         <v>1302456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -5274,13 +5250,13 @@
         <v>2381237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5271,13 @@
         <v>2201696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>1905</v>
@@ -5310,13 +5286,13 @@
         <v>2060336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
@@ -5325,13 +5301,13 @@
         <v>4262033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5363,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FED6D80-9D12-4C85-8230-4D387516C2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C7826-C35E-4D5F-BA3B-B0891272E9A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5428,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,13 +5511,13 @@
         <v>89678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5550,13 +5526,13 @@
         <v>101948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5565,13 +5541,13 @@
         <v>191625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5562,13 @@
         <v>172679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -5601,13 +5577,13 @@
         <v>159493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>310</v>
@@ -5616,13 +5592,13 @@
         <v>332172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5666,13 @@
         <v>114319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5705,13 +5681,13 @@
         <v>167609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -5720,13 +5696,13 @@
         <v>281928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5717,13 @@
         <v>379451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5756,13 +5732,13 @@
         <v>341394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>672</v>
@@ -5771,13 +5747,13 @@
         <v>720845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5821,13 @@
         <v>55690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5860,13 +5836,13 @@
         <v>42513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5875,13 +5851,13 @@
         <v>98203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5872,13 @@
         <v>251931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5911,13 +5887,13 @@
         <v>276067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>538</v>
@@ -5926,13 +5902,13 @@
         <v>527997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5976,13 @@
         <v>97228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -6015,13 +5991,13 @@
         <v>102285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -6030,13 +6006,13 @@
         <v>199514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6027,13 @@
         <v>241627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -6066,13 +6042,13 @@
         <v>248620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -6081,13 +6057,13 @@
         <v>490246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6131,13 @@
         <v>53202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6170,13 +6146,13 @@
         <v>45433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -6185,13 +6161,13 @@
         <v>98635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6182,13 @@
         <v>141186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6221,13 +6197,13 @@
         <v>162937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -6236,13 +6212,13 @@
         <v>304122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6286,13 @@
         <v>57067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6325,13 +6301,13 @@
         <v>73474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6340,13 +6316,13 @@
         <v>130541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6337,13 @@
         <v>183171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -6376,13 +6352,13 @@
         <v>173507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -6391,13 +6367,13 @@
         <v>356678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6429,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6465,13 +6441,13 @@
         <v>159070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6480,13 +6456,13 @@
         <v>185891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -6495,13 +6471,13 @@
         <v>344961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6492,13 @@
         <v>430557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>398</v>
@@ -6531,13 +6507,13 @@
         <v>428051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>780</v>
@@ -6546,13 +6522,13 @@
         <v>858607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6620,13 +6596,13 @@
         <v>168533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6635,13 +6611,13 @@
         <v>159097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -6650,13 +6626,13 @@
         <v>327630</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6647,13 @@
         <v>555554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6686,13 +6662,13 @@
         <v>615020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6701,13 +6677,13 @@
         <v>1170574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,28 +6751,28 @@
         <v>794787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>844</v>
       </c>
       <c r="I28" s="7">
-        <v>878250</v>
+        <v>878251</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>1589</v>
@@ -6805,13 +6781,13 @@
         <v>1673037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6802,13 @@
         <v>2356155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -6841,13 +6817,13 @@
         <v>2405087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>4516</v>
@@ -6856,13 +6832,13 @@
         <v>4761242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6865,7 @@
         <v>3106</v>
       </c>
       <c r="I30" s="7">
-        <v>3283337</v>
+        <v>3283338</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6918,7 +6894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6942,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E785F1A-6B3E-4530-B3C4-CDF940694D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F78B5F-D620-4C6C-9DBC-66CA7271A82F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6959,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7066,13 +7042,13 @@
         <v>41130</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -7081,13 +7057,13 @@
         <v>50791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -7096,13 +7072,13 @@
         <v>91921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7093,13 @@
         <v>183753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>372</v>
@@ -7132,13 +7108,13 @@
         <v>184551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
@@ -7147,13 +7123,13 @@
         <v>368304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7197,13 @@
         <v>45113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -7236,13 +7212,13 @@
         <v>65198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -7251,13 +7227,13 @@
         <v>110311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7248,13 @@
         <v>443903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7287,13 +7263,13 @@
         <v>447716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>912</v>
@@ -7302,13 +7278,13 @@
         <v>891619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7352,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -7391,13 +7367,13 @@
         <v>53315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -7406,13 +7382,13 @@
         <v>73731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7403,13 @@
         <v>281591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7442,13 +7418,13 @@
         <v>291733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>731</v>
@@ -7457,13 +7433,13 @@
         <v>573324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7507,13 @@
         <v>38598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7546,13 +7522,13 @@
         <v>44293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -7561,13 +7537,13 @@
         <v>82891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7558,13 @@
         <v>229775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>417</v>
@@ -7597,13 +7573,13 @@
         <v>321656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7612,13 +7588,13 @@
         <v>551431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7662,13 @@
         <v>7878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7701,13 +7677,13 @@
         <v>14357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -7716,13 +7692,13 @@
         <v>22235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7713,13 @@
         <v>173019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7752,13 +7728,13 @@
         <v>208134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
@@ -7767,13 +7743,13 @@
         <v>381153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7817,13 @@
         <v>28164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -7856,13 +7832,13 @@
         <v>31778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -7871,13 +7847,13 @@
         <v>59942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7868,13 @@
         <v>228374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7907,13 +7883,13 @@
         <v>234350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
@@ -7922,13 +7898,13 @@
         <v>462725</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,7 +7960,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7996,13 +7972,13 @@
         <v>114562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -8011,13 +7987,13 @@
         <v>156258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
@@ -8026,13 +8002,13 @@
         <v>270820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8023,13 @@
         <v>474859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
@@ -8062,13 +8038,13 @@
         <v>617981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -8077,13 +8053,13 @@
         <v>1092840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8115,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8151,13 +8127,13 @@
         <v>93777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8166,13 +8142,13 @@
         <v>46469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -8181,13 +8157,13 @@
         <v>140246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,13 +8178,13 @@
         <v>678717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>861</v>
@@ -8217,13 +8193,13 @@
         <v>710557</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -8232,13 +8208,13 @@
         <v>1389274</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,13 +8282,13 @@
         <v>389638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>605</v>
@@ -8321,13 +8297,13 @@
         <v>462458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>901</v>
@@ -8336,13 +8312,13 @@
         <v>852096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,13 +8333,13 @@
         <v>2693991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>4216</v>
@@ -8372,13 +8348,13 @@
         <v>3016679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>6967</v>
@@ -8387,13 +8363,13 @@
         <v>5710670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8449,7 +8425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P26-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F987C1-0444-4A0C-A1A4-F90EFF64C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DA1779-CB3C-4AFF-A571-EA525AEF866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE4CFF2-1794-47D5-9A0C-3431738F7A1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51CA3740-6A11-424A-B12F-61DC06FCACA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1798 +140,1816 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>23,28%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>88,13%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56975B25-1E1A-4961-8D99-79BAB33F6748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9082F8-D045-45B6-8D5E-5A845F689BD3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3260,10 +3278,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -3272,13 +3290,13 @@
         <v>168605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3311,13 @@
         <v>180224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -3308,13 +3326,13 @@
         <v>149913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -3323,13 +3341,13 @@
         <v>330138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3403,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3397,13 +3415,13 @@
         <v>175532</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -3412,28 +3430,28 @@
         <v>225911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
       </c>
       <c r="N22" s="7">
-        <v>401443</v>
+        <v>401444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3466,13 @@
         <v>401472</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>353</v>
@@ -3463,13 +3481,13 @@
         <v>361962</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>742</v>
@@ -3478,13 +3496,13 @@
         <v>763434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3544,7 @@
         <v>1138</v>
       </c>
       <c r="N24" s="7">
-        <v>1164877</v>
+        <v>1164878</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3540,7 +3558,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3552,13 +3570,13 @@
         <v>198410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -3567,13 +3585,13 @@
         <v>252752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>433</v>
@@ -3582,13 +3600,13 @@
         <v>451161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3621,13 @@
         <v>497274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3618,13 +3636,13 @@
         <v>478541</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>951</v>
@@ -3633,13 +3651,13 @@
         <v>975816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3725,13 @@
         <v>873885</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1124</v>
@@ -3722,13 +3740,13 @@
         <v>1146829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1980</v>
@@ -3737,13 +3755,13 @@
         <v>2020714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3776,13 @@
         <v>2177981</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1898</v>
@@ -3773,13 +3791,13 @@
         <v>1945558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4041</v>
@@ -3788,13 +3806,13 @@
         <v>4123539</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3868,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04619FD0-6430-443C-8A6C-738A8A8ABDE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5B3178-67F7-41B2-8FC1-CC52B56CC5BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3909,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,39 +4014,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,39 +4059,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,39 +4104,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4153,13 @@
         <v>160729</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4150,13 +4168,13 @@
         <v>210549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>348</v>
@@ -4165,13 +4183,13 @@
         <v>371278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4204,13 @@
         <v>332558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -4201,13 +4219,13 @@
         <v>300473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -4216,13 +4234,13 @@
         <v>633031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4308,13 @@
         <v>108020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4305,13 +4323,13 @@
         <v>110393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4320,13 +4338,13 @@
         <v>218412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4359,13 @@
         <v>195592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4356,13 +4374,13 @@
         <v>195977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -4371,13 +4389,13 @@
         <v>391570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4463,13 @@
         <v>215303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -4460,13 +4478,13 @@
         <v>229024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>411</v>
@@ -4475,13 +4493,13 @@
         <v>444327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4514,13 @@
         <v>432249</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -4511,13 +4529,13 @@
         <v>425584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>801</v>
@@ -4526,13 +4544,13 @@
         <v>857833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4618,13 @@
         <v>70287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4615,13 +4633,13 @@
         <v>86390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -4630,13 +4648,13 @@
         <v>156676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4669,13 @@
         <v>142331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4666,13 +4684,13 @@
         <v>128798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -4681,13 +4699,13 @@
         <v>271130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4773,13 @@
         <v>77819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4770,13 +4788,13 @@
         <v>110962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4785,13 +4803,13 @@
         <v>188781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4824,13 @@
         <v>179590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>137</v>
@@ -4821,13 +4839,13 @@
         <v>143200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
@@ -4836,13 +4854,13 @@
         <v>322790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4916,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4910,13 +4928,13 @@
         <v>208070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4925,13 +4943,13 @@
         <v>262585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>444</v>
@@ -4940,13 +4958,13 @@
         <v>470655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4979,13 @@
         <v>400052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>326</v>
@@ -4976,13 +4994,13 @@
         <v>358461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>696</v>
@@ -4994,10 +5012,10 @@
         <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5071,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5065,13 +5083,13 @@
         <v>238554</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -5080,13 +5098,13 @@
         <v>292553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>485</v>
@@ -5095,13 +5113,13 @@
         <v>531107</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5134,13 @@
         <v>519323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>468</v>
@@ -5131,13 +5149,13 @@
         <v>507843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>949</v>
@@ -5146,13 +5164,13 @@
         <v>1027166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5238,13 @@
         <v>1078781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>1215</v>
@@ -5235,13 +5253,13 @@
         <v>1302456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -5250,13 +5268,13 @@
         <v>2381237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5289,13 @@
         <v>2201696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>1905</v>
@@ -5286,13 +5304,13 @@
         <v>2060336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
@@ -5301,13 +5319,13 @@
         <v>4262033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5381,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C7826-C35E-4D5F-BA3B-B0891272E9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E619CBB-E6D2-47AB-BE26-FDAC128E76BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5529,13 @@
         <v>89678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5526,13 +5544,13 @@
         <v>101948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5541,13 +5559,13 @@
         <v>191625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5580,13 @@
         <v>172679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -5577,13 +5595,13 @@
         <v>159493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>310</v>
@@ -5592,13 +5610,13 @@
         <v>332172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5684,13 @@
         <v>114319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5681,13 +5699,13 @@
         <v>167609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -5696,13 +5714,13 @@
         <v>281928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5735,13 @@
         <v>379451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5732,13 +5750,13 @@
         <v>341394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>672</v>
@@ -5747,13 +5765,13 @@
         <v>720845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5839,13 @@
         <v>55690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5836,13 +5854,13 @@
         <v>42513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5851,13 +5869,13 @@
         <v>98203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5890,13 @@
         <v>251931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5887,13 +5905,13 @@
         <v>276067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>538</v>
@@ -5902,13 +5920,13 @@
         <v>527997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5994,13 @@
         <v>97228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5991,13 +6009,13 @@
         <v>102285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -6006,13 +6024,13 @@
         <v>199514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6045,13 @@
         <v>241627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -6042,13 +6060,13 @@
         <v>248620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -6057,13 +6075,13 @@
         <v>490246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6149,13 @@
         <v>53202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6146,13 +6164,13 @@
         <v>45433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -6161,13 +6179,13 @@
         <v>98635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6200,13 @@
         <v>141186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6197,13 +6215,13 @@
         <v>162937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -6212,13 +6230,13 @@
         <v>304122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6304,13 @@
         <v>57067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6301,13 +6319,13 @@
         <v>73474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6316,13 +6334,13 @@
         <v>130541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6355,13 @@
         <v>183171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -6352,13 +6370,13 @@
         <v>173507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -6367,13 +6385,13 @@
         <v>356678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6447,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6441,13 +6459,13 @@
         <v>159070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6456,13 +6474,13 @@
         <v>185891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -6471,13 +6489,13 @@
         <v>344961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6510,13 @@
         <v>430557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>398</v>
@@ -6507,13 +6525,13 @@
         <v>428051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>780</v>
@@ -6522,13 +6540,13 @@
         <v>858607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6602,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6596,13 +6614,13 @@
         <v>168533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6611,13 +6629,13 @@
         <v>159097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -6626,13 +6644,13 @@
         <v>327630</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6665,13 @@
         <v>555554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6662,13 +6680,13 @@
         <v>615020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6677,13 +6695,13 @@
         <v>1170574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6769,13 @@
         <v>794787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>844</v>
@@ -6766,13 +6784,13 @@
         <v>878251</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>1589</v>
@@ -6781,13 +6799,13 @@
         <v>1673037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6820,13 @@
         <v>2356155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -6817,13 +6835,13 @@
         <v>2405087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>4516</v>
@@ -6832,13 +6850,13 @@
         <v>4761242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6912,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F78B5F-D620-4C6C-9DBC-66CA7271A82F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3362F3-0E53-4893-BE14-B0C2020383B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7060,13 @@
         <v>41130</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -7057,13 +7075,13 @@
         <v>50791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -7072,13 +7090,13 @@
         <v>91921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7111,13 @@
         <v>183753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>372</v>
@@ -7108,13 +7126,13 @@
         <v>184551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
@@ -7123,13 +7141,13 @@
         <v>368304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7215,13 @@
         <v>45113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -7212,13 +7230,13 @@
         <v>65198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -7227,13 +7245,13 @@
         <v>110311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7266,13 @@
         <v>443903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7263,13 +7281,13 @@
         <v>447716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>912</v>
@@ -7278,13 +7296,13 @@
         <v>891619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7370,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -7367,13 +7385,13 @@
         <v>53315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -7382,13 +7400,13 @@
         <v>73731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7421,13 @@
         <v>281591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7418,13 +7436,13 @@
         <v>291733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>731</v>
@@ -7433,13 +7451,13 @@
         <v>573324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7525,13 @@
         <v>38598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7522,13 +7540,13 @@
         <v>44293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -7537,13 +7555,13 @@
         <v>82891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7576,13 @@
         <v>229775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>417</v>
@@ -7573,13 +7591,13 @@
         <v>321656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7588,13 +7606,13 @@
         <v>551431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7680,13 @@
         <v>7878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7677,13 +7695,13 @@
         <v>14357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -7692,13 +7710,13 @@
         <v>22235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7731,13 @@
         <v>173019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7728,13 +7746,13 @@
         <v>208134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
@@ -7743,13 +7761,13 @@
         <v>381153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7835,13 @@
         <v>28164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -7832,13 +7850,13 @@
         <v>31778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -7847,13 +7865,13 @@
         <v>59942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7886,13 @@
         <v>228374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7883,13 +7901,13 @@
         <v>234350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
@@ -7898,13 +7916,13 @@
         <v>462725</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7978,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7972,13 +7990,13 @@
         <v>114562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -7987,13 +8005,13 @@
         <v>156258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>586</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
@@ -8002,13 +8020,13 @@
         <v>270820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8041,13 @@
         <v>474859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
@@ -8038,13 +8056,13 @@
         <v>617981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -8053,13 +8071,13 @@
         <v>1092840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8133,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8127,13 +8145,13 @@
         <v>93777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8142,13 +8160,13 @@
         <v>46469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -8157,13 +8175,13 @@
         <v>140246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8196,13 @@
         <v>678717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="H26" s="7">
         <v>861</v>
@@ -8193,13 +8211,13 @@
         <v>710557</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -8208,13 +8226,13 @@
         <v>1389274</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8300,13 @@
         <v>389638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>605</v>
@@ -8297,13 +8315,13 @@
         <v>462458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>901</v>
@@ -8312,13 +8330,13 @@
         <v>852096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8351,13 @@
         <v>2693991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H29" s="7">
         <v>4216</v>
@@ -8348,13 +8366,13 @@
         <v>3016679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="M29" s="7">
         <v>6967</v>
@@ -8363,13 +8381,13 @@
         <v>5710670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,7 +8443,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P26-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DA1779-CB3C-4AFF-A571-EA525AEF866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC52F9F1-B614-4C7F-A534-DC1FD6B4B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51CA3740-6A11-424A-B12F-61DC06FCACA1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{20107DB9-9E98-4195-A7BB-5C7F82CED96F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="650">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>32,58%</t>
@@ -704,303 +755,303 @@
     <t>68,33%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
     <t>64,16%</t>
   </si>
   <si>
@@ -1466,490 +1517,478 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9082F8-D045-45B6-8D5E-5A845F689BD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EFE9B7-694D-471F-8C06-3BC7E71B4501}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3442,7 +3481,7 @@
         <v>396</v>
       </c>
       <c r="N22" s="7">
-        <v>401444</v>
+        <v>401443</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -3544,7 +3583,7 @@
         <v>1138</v>
       </c>
       <c r="N24" s="7">
-        <v>1164878</v>
+        <v>1164877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3892,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5B3178-67F7-41B2-8FC1-CC52B56CC5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEFCFCF-4A48-44DF-BF9F-E89911B7218F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,43 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D4" s="7">
+        <v>108559</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="I4" s="7">
+        <v>117541</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="N4" s="7">
+        <v>226100</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,43 +4100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="D5" s="7">
+        <v>172360</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="I5" s="7">
+        <v>159575</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="N5" s="7">
+        <v>331935</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,43 +4151,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="D6" s="7">
+        <v>280919</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="I6" s="7">
+        <v>277116</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>515</v>
+      </c>
+      <c r="N6" s="7">
+        <v>558035</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4210,13 @@
         <v>160729</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4168,13 +4225,13 @@
         <v>210549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>348</v>
@@ -4183,13 +4240,13 @@
         <v>371278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4261,13 @@
         <v>332558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -4219,13 +4276,13 @@
         <v>300473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -4234,13 +4291,13 @@
         <v>633031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4365,13 @@
         <v>108020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4323,13 +4380,13 @@
         <v>110393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4338,13 +4395,13 @@
         <v>218412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4416,13 @@
         <v>195592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4374,13 +4431,13 @@
         <v>195977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -4389,13 +4446,13 @@
         <v>391570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>215303</v>
+        <v>106745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>229024</v>
+        <v>111483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="N13" s="7">
-        <v>444327</v>
+        <v>218228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="D14" s="7">
-        <v>432249</v>
+        <v>259888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7">
-        <v>425584</v>
+        <v>266009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>801</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7">
-        <v>857833</v>
+        <v>525897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>605</v>
+        <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>647552</v>
+        <v>366633</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4574,10 +4631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>607</v>
+        <v>360</v>
       </c>
       <c r="I15" s="7">
-        <v>654608</v>
+        <v>377492</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4589,10 +4646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1212</v>
+        <v>697</v>
       </c>
       <c r="N15" s="7">
-        <v>1302160</v>
+        <v>744125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4618,13 +4675,13 @@
         <v>70287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4633,13 +4690,13 @@
         <v>86390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -4648,13 +4705,13 @@
         <v>156676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,10 +4726,10 @@
         <v>142331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>175</v>
@@ -4684,13 +4741,13 @@
         <v>128798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -4699,13 +4756,13 @@
         <v>271130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4830,13 @@
         <v>77819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4788,13 +4845,13 @@
         <v>110962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4803,13 +4860,13 @@
         <v>188781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4881,13 @@
         <v>179590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>137</v>
@@ -4839,13 +4896,13 @@
         <v>143200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
@@ -4854,13 +4911,13 @@
         <v>322790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4985,13 @@
         <v>208070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4943,13 +5000,13 @@
         <v>262585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>444</v>
@@ -4958,13 +5015,13 @@
         <v>470655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5036,13 @@
         <v>400052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>326</v>
@@ -4994,13 +5051,13 @@
         <v>358461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>696</v>
@@ -5009,13 +5066,13 @@
         <v>758513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5140,13 @@
         <v>238554</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -5098,13 +5155,13 @@
         <v>292553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>485</v>
@@ -5113,13 +5170,13 @@
         <v>531107</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5191,13 @@
         <v>519323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>468</v>
@@ -5149,13 +5206,13 @@
         <v>507843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>949</v>
@@ -5164,13 +5221,13 @@
         <v>1027166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5295,13 @@
         <v>1078781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1215</v>
@@ -5253,13 +5310,13 @@
         <v>1302456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -5268,13 +5325,13 @@
         <v>2381237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5346,13 @@
         <v>2201696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>1905</v>
@@ -5304,13 +5361,13 @@
         <v>2060336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
@@ -5319,13 +5376,13 @@
         <v>4262033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E619CBB-E6D2-47AB-BE26-FDAC128E76BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB284867-B879-4FAE-8F82-355AE9E4E00A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5586,13 @@
         <v>89678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5544,13 +5601,13 @@
         <v>101948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5559,13 +5616,13 @@
         <v>191625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5637,13 @@
         <v>172679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -5595,13 +5652,13 @@
         <v>159493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>310</v>
@@ -5610,10 +5667,10 @@
         <v>332172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>48</v>
@@ -5684,13 +5741,13 @@
         <v>114319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5699,13 +5756,13 @@
         <v>167609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -5714,13 +5771,13 @@
         <v>281928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5792,13 @@
         <v>379451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5750,13 +5807,13 @@
         <v>341394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>672</v>
@@ -5765,13 +5822,13 @@
         <v>720845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,10 +5896,10 @@
         <v>55690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
@@ -5854,13 +5911,13 @@
         <v>42513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5869,13 +5926,13 @@
         <v>98203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5947,13 @@
         <v>251931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5905,13 +5962,13 @@
         <v>276067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>538</v>
@@ -5920,13 +5977,13 @@
         <v>527997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6051,13 @@
         <v>97228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -6009,13 +6066,13 @@
         <v>102285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -6024,13 +6081,13 @@
         <v>199514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6102,13 @@
         <v>241627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -6060,13 +6117,13 @@
         <v>248620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -6075,13 +6132,13 @@
         <v>490246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6206,13 @@
         <v>53202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6164,13 +6221,13 @@
         <v>45433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -6179,13 +6236,13 @@
         <v>98635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6257,13 @@
         <v>141186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6215,13 +6272,13 @@
         <v>162937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -6230,13 +6287,13 @@
         <v>304122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6361,13 @@
         <v>57067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6319,13 +6376,13 @@
         <v>73474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6334,13 +6391,13 @@
         <v>130541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6412,13 @@
         <v>183171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -6370,13 +6427,13 @@
         <v>173507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -6385,13 +6442,13 @@
         <v>356678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6516,13 @@
         <v>159070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6474,13 +6531,13 @@
         <v>185891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -6489,13 +6546,13 @@
         <v>344961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6567,13 @@
         <v>430557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>398</v>
@@ -6525,28 +6582,28 @@
         <v>428051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>780</v>
       </c>
       <c r="N23" s="7">
-        <v>858607</v>
+        <v>858608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,7 +6645,7 @@
         <v>1095</v>
       </c>
       <c r="N24" s="7">
-        <v>1203568</v>
+        <v>1203569</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6614,13 +6671,13 @@
         <v>168533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6629,13 +6686,13 @@
         <v>159097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -6644,13 +6701,13 @@
         <v>327630</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6722,13 @@
         <v>555554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -6680,13 +6737,13 @@
         <v>615020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6695,13 +6752,13 @@
         <v>1170574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,10 +6826,10 @@
         <v>794787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>165</v>
@@ -6781,16 +6838,16 @@
         <v>844</v>
       </c>
       <c r="I28" s="7">
-        <v>878251</v>
+        <v>878250</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="M28" s="7">
         <v>1589</v>
@@ -6799,10 +6856,10 @@
         <v>1673037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>51</v>
@@ -6820,13 +6877,13 @@
         <v>2356155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -6835,13 +6892,13 @@
         <v>2405087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M29" s="7">
         <v>4516</v>
@@ -6850,13 +6907,13 @@
         <v>4761242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6940,7 @@
         <v>3106</v>
       </c>
       <c r="I30" s="7">
-        <v>3283338</v>
+        <v>3283337</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6936,7 +6993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3362F3-0E53-4893-BE14-B0C2020383B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F999148A-BD2C-4143-9EE3-95C0C316266E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +7010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7057,46 +7114,46 @@
         <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>41130</v>
+        <v>50887</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>50791</v>
+        <v>56707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
       </c>
       <c r="N4" s="7">
-        <v>91921</v>
+        <v>107594</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,46 +7165,46 @@
         <v>245</v>
       </c>
       <c r="D5" s="7">
-        <v>183753</v>
+        <v>217542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>372</v>
       </c>
       <c r="I5" s="7">
-        <v>184551</v>
+        <v>195922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
       </c>
       <c r="N5" s="7">
-        <v>368304</v>
+        <v>413464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7216,7 @@
         <v>286</v>
       </c>
       <c r="D6" s="7">
-        <v>224883</v>
+        <v>268429</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7174,7 +7231,7 @@
         <v>462</v>
       </c>
       <c r="I6" s="7">
-        <v>235342</v>
+        <v>252629</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7189,7 +7246,7 @@
         <v>748</v>
       </c>
       <c r="N6" s="7">
-        <v>460225</v>
+        <v>521058</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7212,46 +7269,46 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>45113</v>
+        <v>48720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>65198</v>
+        <v>60527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>110311</v>
+        <v>109247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,46 +7320,46 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>443903</v>
+        <v>440593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
       </c>
       <c r="I8" s="7">
-        <v>447716</v>
+        <v>415996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="M8" s="7">
         <v>912</v>
       </c>
       <c r="N8" s="7">
-        <v>891619</v>
+        <v>856589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7371,7 @@
         <v>356</v>
       </c>
       <c r="D9" s="7">
-        <v>489016</v>
+        <v>489313</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7329,7 +7386,7 @@
         <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>512914</v>
+        <v>476523</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7344,7 +7401,7 @@
         <v>1015</v>
       </c>
       <c r="N9" s="7">
-        <v>1001930</v>
+        <v>965836</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7367,46 +7424,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>20417</v>
+        <v>19681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>53315</v>
+        <v>50139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>73731</v>
+        <v>69820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,46 +7475,46 @@
         <v>307</v>
       </c>
       <c r="D11" s="7">
-        <v>281591</v>
+        <v>277040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>291733</v>
+        <v>272864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>731</v>
       </c>
       <c r="N11" s="7">
-        <v>573324</v>
+        <v>549904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,7 +7526,7 @@
         <v>333</v>
       </c>
       <c r="D12" s="7">
-        <v>302008</v>
+        <v>296721</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7484,7 +7541,7 @@
         <v>490</v>
       </c>
       <c r="I12" s="7">
-        <v>345048</v>
+        <v>323003</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7499,7 +7556,7 @@
         <v>823</v>
       </c>
       <c r="N12" s="7">
-        <v>647055</v>
+        <v>619724</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7522,46 +7579,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>38598</v>
+        <v>38153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>44293</v>
+        <v>40046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>82891</v>
+        <v>78199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7630,46 @@
         <v>215</v>
       </c>
       <c r="D14" s="7">
-        <v>229775</v>
+        <v>221712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>417</v>
       </c>
       <c r="I14" s="7">
-        <v>321656</v>
+        <v>377202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
       </c>
       <c r="N14" s="7">
-        <v>551431</v>
+        <v>598915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,7 +7681,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>268373</v>
+        <v>259865</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7639,7 +7696,7 @@
         <v>475</v>
       </c>
       <c r="I15" s="7">
-        <v>365949</v>
+        <v>417248</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7654,7 +7711,7 @@
         <v>718</v>
       </c>
       <c r="N15" s="7">
-        <v>634322</v>
+        <v>677114</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7677,46 +7734,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>7878</v>
+        <v>7049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>14357</v>
+        <v>13024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>22235</v>
+        <v>20073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,46 +7785,46 @@
         <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>173019</v>
+        <v>157379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
       </c>
       <c r="I17" s="7">
-        <v>208134</v>
+        <v>187065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
       </c>
       <c r="N17" s="7">
-        <v>381153</v>
+        <v>344444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7836,7 @@
         <v>256</v>
       </c>
       <c r="D18" s="7">
-        <v>180897</v>
+        <v>164428</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7794,7 +7851,7 @@
         <v>473</v>
       </c>
       <c r="I18" s="7">
-        <v>222491</v>
+        <v>200089</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7809,7 +7866,7 @@
         <v>729</v>
       </c>
       <c r="N18" s="7">
-        <v>403388</v>
+        <v>364517</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7832,46 +7889,46 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>28164</v>
+        <v>27453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>31778</v>
+        <v>29405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>59942</v>
+        <v>56858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,46 +7940,46 @@
         <v>312</v>
       </c>
       <c r="D20" s="7">
-        <v>228374</v>
+        <v>222093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
       </c>
       <c r="I20" s="7">
-        <v>234350</v>
+        <v>218797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
       </c>
       <c r="N20" s="7">
-        <v>462725</v>
+        <v>440889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,7 +7991,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>256538</v>
+        <v>249546</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7949,7 +8006,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>266128</v>
+        <v>248202</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7964,7 +8021,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>522667</v>
+        <v>497747</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7987,46 +8044,46 @@
         <v>99</v>
       </c>
       <c r="D22" s="7">
-        <v>114562</v>
+        <v>113730</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
       </c>
       <c r="I22" s="7">
-        <v>156258</v>
+        <v>145531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
       </c>
       <c r="N22" s="7">
-        <v>270820</v>
+        <v>259260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,46 +8095,46 @@
         <v>460</v>
       </c>
       <c r="D23" s="7">
-        <v>474859</v>
+        <v>473288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
       </c>
       <c r="I23" s="7">
-        <v>617981</v>
+        <v>676428</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
       </c>
       <c r="N23" s="7">
-        <v>1092840</v>
+        <v>1149717</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8146,7 @@
         <v>559</v>
       </c>
       <c r="D24" s="7">
-        <v>589421</v>
+        <v>587018</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8104,7 +8161,7 @@
         <v>912</v>
       </c>
       <c r="I24" s="7">
-        <v>774239</v>
+        <v>821959</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8119,7 +8176,7 @@
         <v>1471</v>
       </c>
       <c r="N24" s="7">
-        <v>1363660</v>
+        <v>1408977</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8142,46 +8199,46 @@
         <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>93777</v>
+        <v>280587</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>46469</v>
+        <v>38013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>140246</v>
+        <v>318599</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,46 +8250,46 @@
         <v>635</v>
       </c>
       <c r="D26" s="7">
-        <v>678717</v>
+        <v>574073</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>861</v>
       </c>
       <c r="I26" s="7">
-        <v>710557</v>
+        <v>587132</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
       </c>
       <c r="N26" s="7">
-        <v>1389274</v>
+        <v>1161205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8301,7 @@
         <v>670</v>
       </c>
       <c r="D27" s="7">
-        <v>772494</v>
+        <v>854660</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8259,7 +8316,7 @@
         <v>910</v>
       </c>
       <c r="I27" s="7">
-        <v>757026</v>
+        <v>625145</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8274,7 +8331,7 @@
         <v>1580</v>
       </c>
       <c r="N27" s="7">
-        <v>1529520</v>
+        <v>1479804</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8297,46 +8354,46 @@
         <v>296</v>
       </c>
       <c r="D28" s="7">
-        <v>389638</v>
+        <v>586260</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="H28" s="7">
         <v>605</v>
       </c>
       <c r="I28" s="7">
-        <v>462458</v>
+        <v>433391</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="M28" s="7">
         <v>901</v>
       </c>
       <c r="N28" s="7">
-        <v>852096</v>
+        <v>1019650</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,46 +8405,46 @@
         <v>2751</v>
       </c>
       <c r="D29" s="7">
-        <v>2693991</v>
+        <v>2583721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
         <v>4216</v>
       </c>
       <c r="I29" s="7">
-        <v>3016679</v>
+        <v>2931406</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="M29" s="7">
         <v>6967</v>
       </c>
       <c r="N29" s="7">
-        <v>5710670</v>
+        <v>5515128</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8456,7 @@
         <v>3047</v>
       </c>
       <c r="D30" s="7">
-        <v>3083629</v>
+        <v>3169981</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8414,7 +8471,7 @@
         <v>4821</v>
       </c>
       <c r="I30" s="7">
-        <v>3479137</v>
+        <v>3364797</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8429,7 +8486,7 @@
         <v>7868</v>
       </c>
       <c r="N30" s="7">
-        <v>6562766</v>
+        <v>6534778</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
